--- a/UT.xlsx
+++ b/UT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>ID TestCase</t>
   </si>
@@ -35,46 +35,58 @@
     <t>Input</t>
   </si>
   <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Step to Perform</t>
-  </si>
-  <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>TC08</t>
-  </si>
-  <si>
-    <t>TC09</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>TC11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check login successfully in case : </t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Check successful user login to articles and user management</t>
+  </si>
+  <si>
+    <t>A valid user info</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>1. Enter email</t>
+  </si>
+  <si>
+    <t>2. Enter password</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>3. Click button 'login'</t>
+  </si>
+  <si>
+    <t>valid password</t>
+  </si>
+  <si>
+    <t>The user is logged in successfully</t>
+  </si>
+  <si>
+    <t>Unsuccessfully user login</t>
+  </si>
+  <si>
+    <t>A valid username</t>
+  </si>
+  <si>
+    <t>invalid password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A error message is displayed and the user isn't logged </t>
+  </si>
+  <si>
+    <t>valid email</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -127,17 +139,94 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,142 +541,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:G16"/>
+  <dimension ref="B3:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="22.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="2:7" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="G7:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
